--- a/examples/ExcelToGUI/BOM_template.xlsx
+++ b/examples/ExcelToGUI/BOM_template.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/88645dd92ef12380/Documents/NuMAD/examples/ExcelToGUI/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="12" documentId="11_0E1069C12602B14D44CD6774B58A1D4C7E2B478E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57A00DB7-728E-419D-A8CC-72C86866759A}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="27795" windowHeight="15135"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LP skin" sheetId="8" r:id="rId1"/>
@@ -76,7 +82,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -106,8 +112,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -119,14 +124,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -164,7 +172,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -236,7 +244,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -409,82 +417,79 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7265625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.54296875" customWidth="1"/>
+    <col min="9" max="9" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="1" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -494,82 +499,79 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7265625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1796875" customWidth="1"/>
+    <col min="9" max="9" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="1" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -579,86 +581,83 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="1" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -668,60 +667,38 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="16.54296875" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
